--- a/Result_sheet.xlsx
+++ b/Result_sheet.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>BGS</t>
+          <t>Bangladesh and Global Studies</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/Result_sheet.xlsx
+++ b/Result_sheet.xlsx
@@ -528,7 +528,7 @@
         <v>3.88</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -568,7 +568,7 @@
         <v>662</v>
       </c>
       <c r="L3" t="n">
-        <v>4.62</v>
+        <v>5.71</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -611,7 +611,7 @@
         <v>710</v>
       </c>
       <c r="L4" t="n">
-        <v>4.88</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>630</v>
       </c>
       <c r="L5" t="n">
-        <v>4.31</v>
+        <v>5.36</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -697,10 +697,10 @@
         <v>599</v>
       </c>
       <c r="L6" t="n">
-        <v>3.94</v>
+        <v>4.93</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -740,7 +740,7 @@
         <v>617</v>
       </c>
       <c r="L7" t="n">
-        <v>4.12</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>6</v>
@@ -783,10 +783,10 @@
         <v>515</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>4.43</v>
       </c>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -869,7 +869,7 @@
         <v>338</v>
       </c>
       <c r="L10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>41</v>
@@ -912,7 +912,7 @@
         <v>556</v>
       </c>
       <c r="L11" t="n">
-        <v>3.69</v>
+        <v>4.36</v>
       </c>
       <c r="M11" t="n">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>401</v>
       </c>
       <c r="L12" t="n">
-        <v>2.31</v>
+        <v>2.64</v>
       </c>
       <c r="M12" t="n">
         <v>31</v>
@@ -998,7 +998,7 @@
         <v>450</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>3.43</v>
       </c>
       <c r="M13" t="n">
         <v>21</v>
@@ -1256,10 +1256,10 @@
         <v>553</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="M19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1299,10 +1299,10 @@
         <v>505</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.93</v>
       </c>
       <c r="M20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -1385,10 +1385,10 @@
         <v>612</v>
       </c>
       <c r="L22" t="n">
-        <v>4.06</v>
+        <v>4.86</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1428,10 +1428,10 @@
         <v>367</v>
       </c>
       <c r="L23" t="n">
-        <v>2.06</v>
+        <v>2.57</v>
       </c>
       <c r="M23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -1471,10 +1471,10 @@
         <v>423</v>
       </c>
       <c r="L24" t="n">
-        <v>2.44</v>
+        <v>2.79</v>
       </c>
       <c r="M24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1557,7 +1557,7 @@
         <v>352</v>
       </c>
       <c r="L26" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>42</v>
@@ -1600,10 +1600,10 @@
         <v>474</v>
       </c>
       <c r="L27" t="n">
-        <v>2.69</v>
+        <v>3.07</v>
       </c>
       <c r="M27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1686,7 +1686,7 @@
         <v>463</v>
       </c>
       <c r="L29" t="n">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="M29" t="n">
         <v>23</v>
@@ -1729,7 +1729,7 @@
         <v>367</v>
       </c>
       <c r="L30" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="M30" t="n">
         <v>38</v>
@@ -1815,7 +1815,7 @@
         <v>395</v>
       </c>
       <c r="L32" t="n">
-        <v>2.31</v>
+        <v>2.64</v>
       </c>
       <c r="M32" t="n">
         <v>32</v>
@@ -1901,7 +1901,7 @@
         <v>482</v>
       </c>
       <c r="L34" t="n">
-        <v>3.12</v>
+        <v>3.71</v>
       </c>
       <c r="M34" t="n">
         <v>20</v>
@@ -1944,7 +1944,7 @@
         <v>333</v>
       </c>
       <c r="L35" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="M35" t="n">
         <v>43</v>
@@ -2116,10 +2116,10 @@
         <v>405</v>
       </c>
       <c r="L39" t="n">
-        <v>2.44</v>
+        <v>2.93</v>
       </c>
       <c r="M39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -2374,7 +2374,7 @@
         <v>342</v>
       </c>
       <c r="L45" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="M45" t="n">
         <v>44</v>
@@ -2632,10 +2632,10 @@
         <v>601</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>4.86</v>
       </c>
       <c r="M51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2675,7 +2675,7 @@
         <v>555</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>15</v>
@@ -2890,7 +2890,7 @@
         <v>349</v>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="M57" t="n">
         <v>39</v>
@@ -3062,7 +3062,7 @@
         <v>372</v>
       </c>
       <c r="L61" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="M61" t="n">
         <v>40</v>
@@ -3148,10 +3148,10 @@
         <v>427</v>
       </c>
       <c r="L63" t="n">
-        <v>2.62</v>
+        <v>3.14</v>
       </c>
       <c r="M63" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -3363,7 +3363,7 @@
         <v>444</v>
       </c>
       <c r="L68" t="n">
-        <v>2.56</v>
+        <v>3.07</v>
       </c>
       <c r="M68" t="n">
         <v>26</v>
@@ -3578,7 +3578,7 @@
         <v>373</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="M73" t="n">
         <v>37</v>
@@ -3750,10 +3750,10 @@
         <v>488</v>
       </c>
       <c r="L77" t="n">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -4051,7 +4051,7 @@
         <v>319</v>
       </c>
       <c r="L84" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="M84" t="n">
         <v>45</v>
@@ -4180,10 +4180,10 @@
         <v>416</v>
       </c>
       <c r="L87" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="M87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
@@ -4266,7 +4266,7 @@
         <v>627</v>
       </c>
       <c r="L89" t="n">
-        <v>4.19</v>
+        <v>5.21</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -4309,10 +4309,10 @@
         <v>493</v>
       </c>
       <c r="L90" t="n">
-        <v>3.25</v>
+        <v>3.93</v>
       </c>
       <c r="M90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -4352,10 +4352,10 @@
         <v>518</v>
       </c>
       <c r="L91" t="n">
-        <v>3.44</v>
+        <v>4.21</v>
       </c>
       <c r="M91" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -4438,10 +4438,10 @@
         <v>415</v>
       </c>
       <c r="L93" t="n">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="M93" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
@@ -4567,7 +4567,7 @@
         <v>465</v>
       </c>
       <c r="L96" t="n">
-        <v>2.88</v>
+        <v>3.29</v>
       </c>
       <c r="M96" t="n">
         <v>22</v>
@@ -4653,10 +4653,10 @@
         <v>399</v>
       </c>
       <c r="L98" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="M98" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -4782,10 +4782,10 @@
         <v>544</v>
       </c>
       <c r="L101" t="n">
-        <v>3.62</v>
+        <v>4.29</v>
       </c>
       <c r="M101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -4868,10 +4868,10 @@
         <v>404</v>
       </c>
       <c r="L103" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="M103" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
@@ -5298,10 +5298,10 @@
         <v>384</v>
       </c>
       <c r="L113" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="M113" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
@@ -5599,7 +5599,7 @@
         <v>626</v>
       </c>
       <c r="L120" t="n">
-        <v>4.44</v>
+        <v>5.5</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
